--- a/datasets/fashionMnist-784-euclidean-true-labels.xlsx
+++ b/datasets/fashionMnist-784-euclidean-true-labels.xlsx
@@ -19295,7 +19295,7 @@
   1852  7332 41151 22031  3520 47796 38081 22755 47954 41674 32004 23300
  28807  6041 58377  9065 12131  3429 42327 59690 22253 25968 46583 18423
  24920  8309 43104 44649  4918  6154  8207  8599 21123 28803  7266 21122
-  1777 58551 38193 53536]</t>
+ 58551  1777 38193 53536]</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -30376,7 +30376,7 @@
           <t>[31858 39954 39541  6274 17580 17017  8754  8961 44278 44179 57081 54158
  14398 42285 51583 36442 57401 13566 48338 35067 47435 39884  4977 27656
  48307 19485 42857 51504 16026 37524 22911 33728 39592 11142  2418 15730
- 56485 13595 20504 22370 55041 44149 44284 40650   904 49233 33026 40081
+ 56485 13595 20504 22370 55041 44149 44284 40650   904 49233 40081 33026
  27034 51589 35404  7065 29059  4606 51509 14154 53591 17872 39192 52930
  36498 48765 41562 18832 17492 13220 59023 36162 56974 42760  6627 44341
  54949 26732 27808 40757 10407 32800 59192 50857 41031 10627 10207 48045
@@ -35439,7 +35439,7 @@
  46475 12559 11530 55663 51281 52746 32339 20641 10463 43134 10451  3592
   9868 45273 59933 47005 23763 44810 43720 39387 13102 34727 54472 15188
  48965 14718 10629 14835 43255 19560 49129 15618 59802 22753 40924 19975
- 21279 25692 58298 46462]</t>
+ 21279 58298 25692 46462]</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
